--- a/data/hurricane_data.xlsx
+++ b/data/hurricane_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grahamgumbert/Desktop/python/personalprojects/insurance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0D9F1-203A-3347-A2A7-4C5C7A046C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB064BB5-EBCE-8F41-8796-003382615BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{5FFD2F72-4888-2047-A9DA-0B0C89D6E371}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
